--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaTrungThauHhDv.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelMauGiaTrungThauHhDv.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35E077-D117-4EFA-9481-92159C5F5090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C67C70C-3909-4D28-92EE-0C5B9678704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -72,7 +72,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -107,12 +107,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFF2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -121,32 +121,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,9 +143,7 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -169,9 +152,7 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -182,25 +163,25 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,10 +190,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,106 +507,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:F1048576" xr:uid="{1BE4BD86-9909-4BA3-A1CA-291786C7FBE2}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
